--- a/000_DSA_500.xlsx
+++ b/000_DSA_500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DSA_cracker 500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EC220A-68E5-4B93-8206-F19AD42760DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FBF03C-FABE-4609-8FA9-2E08986ACA31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="514">
   <si>
     <t>Topic:</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
-    <t>with 3 comparisons -&gt; used 2 variable and stored : x = max(a,b),y = max(a,c)  -&gt; if(x==y)return max(b,c) else min(x,y), Also we can use tournament method to do so!!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
@@ -1564,13 +1561,19 @@
   </si>
   <si>
     <t>if not sorted -&gt; maps (add all elements of first row and check on all ,at afterwards) | else simple iterator one on each col… read article for better understanding</t>
+  </si>
+  <si>
+    <t>see the arcticle we can take 2 pairs and we will end up in minimum comparisons</t>
+  </si>
+  <si>
+    <t>do check its set approach in code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1718,8 +1721,15 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1736,6 +1746,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1746,13 +1761,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1833,11 +1849,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2053,15 +2076,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.453125" customWidth="1"/>
     <col min="3" max="3" width="107.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="143.6328125" style="20" customWidth="1"/>
     <col min="6" max="6" width="47.26953125" style="20" customWidth="1"/>
     <col min="7" max="27" width="10.54296875" customWidth="1"/>
@@ -2069,14 +2092,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C1" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -2091,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2101,7 +2124,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2121,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2138,10 +2161,10 @@
         <v>44175</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>9</v>
+        <v>512</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2152,16 +2175,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="26">
         <v>44182</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2172,16 +2195,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="26">
         <v>44201</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2192,16 +2215,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="26">
         <v>44201</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2212,16 +2235,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="26">
         <v>44201</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2232,16 +2255,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="26">
         <v>44201</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2252,16 +2275,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="26">
         <v>44202</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2272,14 +2295,14 @@
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2290,16 +2313,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="26">
         <v>44245</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>476</v>
+      <c r="E15" s="30" t="s">
+        <v>475</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2310,16 +2333,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="26">
         <v>44245</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2330,16 +2353,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="26">
         <v>44245</v>
       </c>
       <c r="E17" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>478</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2350,16 +2373,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="26">
         <v>44245</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2370,16 +2393,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="26">
         <v>44245</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>483</v>
+      <c r="E19" s="30" t="s">
+        <v>482</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2390,16 +2413,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="26">
         <v>44245</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2410,16 +2433,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="26">
         <v>44246</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>484</v>
+      <c r="E21" s="30" t="s">
+        <v>483</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2430,16 +2453,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="26">
         <v>44246</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2450,16 +2473,16 @@
         <v>5</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="26">
         <v>44246</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2470,16 +2493,16 @@
         <v>5</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="26">
         <v>44246</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2490,16 +2513,16 @@
         <v>5</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>486</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2510,16 +2533,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="26">
         <v>44251</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>488</v>
+      <c r="E26" s="30" t="s">
+        <v>487</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2530,16 +2553,16 @@
         <v>5</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="26">
         <v>44251</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>488</v>
+      <c r="E27" s="30" t="s">
+        <v>487</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2550,16 +2573,16 @@
         <v>5</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="26">
         <v>44251</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>488</v>
+      <c r="E28" s="30" t="s">
+        <v>487</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2570,16 +2593,16 @@
         <v>5</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="26">
         <v>44251</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>468</v>
+        <v>487</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2590,16 +2613,16 @@
         <v>5</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="26">
         <v>44251</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2610,16 +2633,16 @@
         <v>5</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="26">
         <v>44251</v>
       </c>
       <c r="E31" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>490</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2630,16 +2653,16 @@
         <v>5</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="26">
         <v>44252</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2650,16 +2673,16 @@
         <v>5</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="26">
         <v>44252</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>488</v>
+      <c r="E33" s="30" t="s">
+        <v>487</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2670,16 +2693,16 @@
         <v>5</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="26">
         <v>44252</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>488</v>
+      <c r="E34" s="30" t="s">
+        <v>487</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2690,16 +2713,16 @@
         <v>5</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="26">
         <v>44252</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2710,16 +2733,16 @@
         <v>5</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="26">
         <v>44252</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2730,16 +2753,16 @@
         <v>5</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="26">
         <v>44252</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2750,16 +2773,16 @@
         <v>5</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="26">
         <v>44252</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2770,16 +2793,16 @@
         <v>5</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="26">
         <v>44252</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>499</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2790,16 +2813,16 @@
         <v>5</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="26">
         <v>44252</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2810,16 +2833,16 @@
         <v>5</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="26">
         <v>44252</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2841,19 +2864,19 @@
         <v>37</v>
       </c>
       <c r="B44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="D44" s="26">
         <v>44253</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2861,19 +2884,19 @@
         <v>38</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="26">
         <v>44253</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2881,10 +2904,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>4</v>
@@ -2896,19 +2919,19 @@
         <v>40</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="26">
         <v>44253</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2916,19 +2939,19 @@
         <v>41</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="26">
         <v>44253</v>
       </c>
       <c r="E48" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>505</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2936,19 +2959,19 @@
         <v>42</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="26">
         <v>44257</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2956,19 +2979,19 @@
         <v>43</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="26">
         <v>44257</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2976,19 +2999,19 @@
         <v>44</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" s="26">
         <v>44257</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2996,19 +3019,19 @@
         <v>45</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="26">
         <v>44257</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3016,19 +3039,19 @@
         <v>46</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="26">
         <v>44257</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3045,10 +3068,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>4</v>
@@ -3059,10 +3082,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>4</v>
@@ -3073,10 +3096,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>4</v>
@@ -3087,10 +3110,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>4</v>
@@ -3101,10 +3124,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>4</v>
@@ -3115,10 +3138,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>4</v>
@@ -3129,10 +3152,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>4</v>
@@ -3143,10 +3166,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>4</v>
@@ -3157,10 +3180,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>4</v>
@@ -3171,10 +3194,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>4</v>
@@ -3185,10 +3208,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>4</v>
@@ -3199,10 +3222,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>4</v>
@@ -3213,10 +3236,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>4</v>
@@ -3227,10 +3250,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>4</v>
@@ -3241,10 +3264,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>4</v>
@@ -3255,10 +3278,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>4</v>
@@ -3269,10 +3292,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>4</v>
@@ -3283,10 +3306,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
@@ -3297,10 +3320,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>4</v>
@@ -3311,10 +3334,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>4</v>
@@ -3325,10 +3348,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>4</v>
@@ -3339,10 +3362,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>4</v>
@@ -3353,10 +3376,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>4</v>
@@ -3367,10 +3390,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>4</v>
@@ -3381,10 +3404,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>4</v>
@@ -3395,10 +3418,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>4</v>
@@ -3409,10 +3432,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>4</v>
@@ -3423,10 +3446,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>4</v>
@@ -3437,10 +3460,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>4</v>
@@ -3451,10 +3474,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>4</v>
@@ -3465,10 +3488,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>4</v>
@@ -3479,10 +3502,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>4</v>
@@ -3493,10 +3516,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>4</v>
@@ -3507,10 +3530,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>4</v>
@@ -3521,10 +3544,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>4</v>
@@ -3535,10 +3558,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>4</v>
@@ -3549,10 +3572,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>4</v>
@@ -3563,10 +3586,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>4</v>
@@ -3577,10 +3600,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>4</v>
@@ -3591,10 +3614,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>4</v>
@@ -3605,10 +3628,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>4</v>
@@ -3619,10 +3642,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>4</v>
@@ -3633,10 +3656,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>4</v>
@@ -3656,10 +3679,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>4</v>
@@ -3670,10 +3693,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>4</v>
@@ -3684,10 +3707,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>4</v>
@@ -3698,10 +3721,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>4</v>
@@ -3712,10 +3735,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>4</v>
@@ -3726,10 +3749,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>4</v>
@@ -3740,10 +3763,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>4</v>
@@ -3754,10 +3777,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>4</v>
@@ -3768,10 +3791,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>4</v>
@@ -3782,10 +3805,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>4</v>
@@ -3796,10 +3819,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>4</v>
@@ -3810,10 +3833,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>4</v>
@@ -3824,10 +3847,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>4</v>
@@ -3838,10 +3861,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>4</v>
@@ -3852,10 +3875,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>4</v>
@@ -3866,10 +3889,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>4</v>
@@ -3880,10 +3903,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>4</v>
@@ -3894,10 +3917,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>4</v>
@@ -3908,10 +3931,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>4</v>
@@ -3922,10 +3945,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>4</v>
@@ -3936,10 +3959,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>4</v>
@@ -3950,10 +3973,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>4</v>
@@ -3964,10 +3987,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>4</v>
@@ -3978,10 +4001,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>4</v>
@@ -3992,10 +4015,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>4</v>
@@ -4006,10 +4029,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>4</v>
@@ -4020,10 +4043,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>4</v>
@@ -4034,10 +4057,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>4</v>
@@ -4048,10 +4071,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>4</v>
@@ -4062,10 +4085,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>4</v>
@@ -4076,10 +4099,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>4</v>
@@ -4090,10 +4113,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>4</v>
@@ -4104,10 +4127,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>4</v>
@@ -4118,10 +4141,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>4</v>
@@ -4132,10 +4155,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>4</v>
@@ -4146,10 +4169,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>4</v>
@@ -4168,10 +4191,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>4</v>
@@ -4182,10 +4205,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>4</v>
@@ -4196,10 +4219,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>4</v>
@@ -4210,10 +4233,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>4</v>
@@ -4224,10 +4247,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>4</v>
@@ -4238,10 +4261,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>4</v>
@@ -4252,10 +4275,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>4</v>
@@ -4266,10 +4289,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>4</v>
@@ -4280,10 +4303,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>4</v>
@@ -4294,10 +4317,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>4</v>
@@ -4308,10 +4331,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>4</v>
@@ -4322,10 +4345,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>4</v>
@@ -4336,10 +4359,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>4</v>
@@ -4350,10 +4373,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>4</v>
@@ -4364,10 +4387,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>4</v>
@@ -4378,10 +4401,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>4</v>
@@ -4392,10 +4415,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>4</v>
@@ -4406,10 +4429,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>4</v>
@@ -4420,10 +4443,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>4</v>
@@ -4434,10 +4457,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>4</v>
@@ -4448,10 +4471,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>4</v>
@@ -4462,10 +4485,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>4</v>
@@ -4476,10 +4499,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>4</v>
@@ -4490,10 +4513,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>4</v>
@@ -4504,10 +4527,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>4</v>
@@ -4518,10 +4541,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>4</v>
@@ -4532,10 +4555,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>4</v>
@@ -4546,10 +4569,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>4</v>
@@ -4560,10 +4583,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>4</v>
@@ -4574,10 +4597,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>4</v>
@@ -4588,10 +4611,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>4</v>
@@ -4602,10 +4625,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>4</v>
@@ -4616,10 +4639,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>4</v>
@@ -4630,10 +4653,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>4</v>
@@ -4644,10 +4667,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>4</v>
@@ -4658,10 +4681,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>4</v>
@@ -4680,10 +4703,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>4</v>
@@ -4694,10 +4717,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>4</v>
@@ -4708,10 +4731,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>4</v>
@@ -4722,10 +4745,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>4</v>
@@ -4736,10 +4759,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>4</v>
@@ -4750,10 +4773,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>4</v>
@@ -4764,10 +4787,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>4</v>
@@ -4778,10 +4801,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>4</v>
@@ -4792,10 +4815,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>4</v>
@@ -4806,10 +4829,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>4</v>
@@ -4820,10 +4843,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>4</v>
@@ -4834,10 +4857,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>4</v>
@@ -4848,10 +4871,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>4</v>
@@ -4862,10 +4885,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>4</v>
@@ -4876,10 +4899,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>4</v>
@@ -4890,10 +4913,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>4</v>
@@ -4904,10 +4927,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>4</v>
@@ -4918,10 +4941,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>4</v>
@@ -4932,10 +4955,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>4</v>
@@ -4946,10 +4969,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>4</v>
@@ -4960,10 +4983,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>4</v>
@@ -4974,10 +4997,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>4</v>
@@ -4988,10 +5011,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>4</v>
@@ -5002,10 +5025,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>4</v>
@@ -5016,10 +5039,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>4</v>
@@ -5030,10 +5053,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>4</v>
@@ -5044,10 +5067,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>4</v>
@@ -5058,10 +5081,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>4</v>
@@ -5072,10 +5095,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>4</v>
@@ -5086,10 +5109,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>4</v>
@@ -5100,10 +5123,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>4</v>
@@ -5114,10 +5137,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>4</v>
@@ -5128,10 +5151,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>4</v>
@@ -5142,10 +5165,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>4</v>
@@ -5156,10 +5179,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>4</v>
@@ -5182,10 +5205,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C214" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>4</v>
@@ -5196,10 +5219,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>4</v>
@@ -5210,10 +5233,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>4</v>
@@ -5224,10 +5247,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>4</v>
@@ -5238,10 +5261,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>4</v>
@@ -5252,10 +5275,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>4</v>
@@ -5266,10 +5289,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>4</v>
@@ -5280,10 +5303,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>4</v>
@@ -5294,10 +5317,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>4</v>
@@ -5308,10 +5331,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>4</v>
@@ -5322,10 +5345,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>4</v>
@@ -5336,10 +5359,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>4</v>
@@ -5350,10 +5373,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>4</v>
@@ -5364,10 +5387,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>4</v>
@@ -5378,10 +5401,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>4</v>
@@ -5392,10 +5415,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>4</v>
@@ -5406,10 +5429,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>4</v>
@@ -5420,10 +5443,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>4</v>
@@ -5434,10 +5457,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>4</v>
@@ -5448,10 +5471,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>4</v>
@@ -5462,10 +5485,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>4</v>
@@ -5476,10 +5499,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>4</v>
@@ -5500,10 +5523,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C238" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>4</v>
@@ -5514,10 +5537,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>4</v>
@@ -5528,10 +5551,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>4</v>
@@ -5542,10 +5565,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>4</v>
@@ -5556,10 +5579,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>4</v>
@@ -5570,10 +5593,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>4</v>
@@ -5584,10 +5607,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>4</v>
@@ -5598,10 +5621,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>4</v>
@@ -5612,10 +5635,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>4</v>
@@ -5626,10 +5649,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>4</v>
@@ -5640,10 +5663,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>4</v>
@@ -5654,10 +5677,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>4</v>
@@ -5668,10 +5691,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>4</v>
@@ -5682,10 +5705,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>4</v>
@@ -5696,10 +5719,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>4</v>
@@ -5710,10 +5733,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>4</v>
@@ -5724,10 +5747,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>4</v>
@@ -5738,10 +5761,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>4</v>
@@ -5752,10 +5775,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>4</v>
@@ -5766,10 +5789,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>4</v>
@@ -5780,10 +5803,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>4</v>
@@ -5794,10 +5817,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>4</v>
@@ -5808,10 +5831,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>4</v>
@@ -5822,10 +5845,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>4</v>
@@ -5836,10 +5859,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>4</v>
@@ -5850,10 +5873,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>4</v>
@@ -5864,10 +5887,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>4</v>
@@ -5878,10 +5901,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>4</v>
@@ -5892,10 +5915,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>4</v>
@@ -5906,10 +5929,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>4</v>
@@ -5920,10 +5943,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>4</v>
@@ -5934,10 +5957,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>4</v>
@@ -5948,10 +5971,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>4</v>
@@ -5962,10 +5985,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>4</v>
@@ -5976,10 +5999,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>4</v>
@@ -6000,10 +6023,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>4</v>
@@ -6014,10 +6037,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>4</v>
@@ -6028,10 +6051,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>4</v>
@@ -6042,10 +6065,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>4</v>
@@ -6056,10 +6079,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>4</v>
@@ -6070,10 +6093,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>4</v>
@@ -6084,10 +6107,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>4</v>
@@ -6098,10 +6121,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>4</v>
@@ -6112,10 +6135,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>4</v>
@@ -6126,10 +6149,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>4</v>
@@ -6140,10 +6163,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>4</v>
@@ -6154,10 +6177,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>4</v>
@@ -6168,10 +6191,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>4</v>
@@ -6182,10 +6205,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>4</v>
@@ -6196,10 +6219,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>4</v>
@@ -6210,10 +6233,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>4</v>
@@ -6224,10 +6247,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>4</v>
@@ -6238,10 +6261,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>4</v>
@@ -6252,10 +6275,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>4</v>
@@ -6276,10 +6299,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C296" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>4</v>
@@ -6290,10 +6313,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>4</v>
@@ -6304,10 +6327,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>4</v>
@@ -6318,10 +6341,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>4</v>
@@ -6332,10 +6355,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>4</v>
@@ -6346,10 +6369,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>4</v>
@@ -6360,10 +6383,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>4</v>
@@ -6374,10 +6397,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>4</v>
@@ -6388,10 +6411,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>4</v>
@@ -6402,10 +6425,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>4</v>
@@ -6416,10 +6439,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>4</v>
@@ -6430,10 +6453,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>4</v>
@@ -6444,10 +6467,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>4</v>
@@ -6458,10 +6481,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>4</v>
@@ -6472,10 +6495,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>4</v>
@@ -6486,10 +6509,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>4</v>
@@ -6500,10 +6523,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>4</v>
@@ -6514,10 +6537,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>4</v>
@@ -6528,10 +6551,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>4</v>
@@ -6542,10 +6565,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>4</v>
@@ -6556,10 +6579,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>4</v>
@@ -6570,10 +6593,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>4</v>
@@ -6584,10 +6607,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>4</v>
@@ -6598,10 +6621,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>4</v>
@@ -6612,10 +6635,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>4</v>
@@ -6626,10 +6649,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>4</v>
@@ -6640,10 +6663,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>4</v>
@@ -6654,10 +6677,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>4</v>
@@ -6668,10 +6691,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>4</v>
@@ -6682,10 +6705,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>4</v>
@@ -6696,10 +6719,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>4</v>
@@ -6710,10 +6733,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>4</v>
@@ -6724,10 +6747,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>4</v>
@@ -6738,10 +6761,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>4</v>
@@ -6752,10 +6775,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>4</v>
@@ -6766,10 +6789,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>4</v>
@@ -6780,10 +6803,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>4</v>
@@ -6794,10 +6817,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>4</v>
@@ -6818,10 +6841,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C336" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>4</v>
@@ -6832,10 +6855,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>4</v>
@@ -6846,10 +6869,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>4</v>
@@ -6860,10 +6883,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>4</v>
@@ -6874,10 +6897,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>4</v>
@@ -6888,10 +6911,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>4</v>
@@ -6902,10 +6925,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>4</v>
@@ -6916,10 +6939,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>4</v>
@@ -6930,10 +6953,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>4</v>
@@ -6944,10 +6967,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>4</v>
@@ -6958,10 +6981,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>4</v>
@@ -6972,10 +6995,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>4</v>
@@ -6986,10 +7009,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>4</v>
@@ -7000,10 +7023,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>4</v>
@@ -7014,10 +7037,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>4</v>
@@ -7028,10 +7051,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>4</v>
@@ -7042,10 +7065,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>4</v>
@@ -7056,10 +7079,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>4</v>
@@ -7080,10 +7103,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C356" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>4</v>
@@ -7094,10 +7117,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>4</v>
@@ -7108,10 +7131,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>4</v>
@@ -7122,10 +7145,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>4</v>
@@ -7136,10 +7159,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>4</v>
@@ -7150,10 +7173,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>4</v>
@@ -7164,10 +7187,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>4</v>
@@ -7178,10 +7201,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>4</v>
@@ -7192,10 +7215,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>4</v>
@@ -7206,10 +7229,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>4</v>
@@ -7220,10 +7243,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>4</v>
@@ -7234,10 +7257,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>4</v>
@@ -7248,10 +7271,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>4</v>
@@ -7262,10 +7285,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>4</v>
@@ -7276,10 +7299,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>4</v>
@@ -7290,10 +7313,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>4</v>
@@ -7304,10 +7327,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>4</v>
@@ -7318,10 +7341,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>4</v>
@@ -7332,10 +7355,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>4</v>
@@ -7346,10 +7369,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>4</v>
@@ -7360,10 +7383,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>4</v>
@@ -7374,10 +7397,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>4</v>
@@ -7388,10 +7411,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>4</v>
@@ -7402,10 +7425,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>4</v>
@@ -7416,10 +7439,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>4</v>
@@ -7430,10 +7453,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>4</v>
@@ -7444,10 +7467,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>4</v>
@@ -7458,10 +7481,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>4</v>
@@ -7472,10 +7495,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>4</v>
@@ -7486,10 +7509,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>4</v>
@@ -7500,10 +7523,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>4</v>
@@ -7514,10 +7537,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>4</v>
@@ -7528,10 +7551,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>4</v>
@@ -7542,10 +7565,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>4</v>
@@ -7556,10 +7579,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>4</v>
@@ -7570,10 +7593,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>4</v>
@@ -7584,10 +7607,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>4</v>
@@ -7598,10 +7621,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>4</v>
@@ -7612,10 +7635,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>4</v>
@@ -7626,10 +7649,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>4</v>
@@ -7640,10 +7663,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>4</v>
@@ -7654,10 +7677,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>4</v>
@@ -7668,10 +7691,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>4</v>
@@ -7682,10 +7705,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>4</v>
@@ -7706,10 +7729,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C402" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>4</v>
@@ -7720,10 +7743,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>4</v>
@@ -7734,10 +7757,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>4</v>
@@ -7748,10 +7771,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>4</v>
@@ -7762,10 +7785,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>4</v>
@@ -7776,10 +7799,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>4</v>
@@ -7800,10 +7823,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C410" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="C410" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>4</v>
@@ -7814,10 +7837,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>4</v>
@@ -7828,10 +7851,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>4</v>
@@ -7842,10 +7865,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>4</v>
@@ -7856,10 +7879,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>4</v>
@@ -7870,10 +7893,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>4</v>
@@ -7884,10 +7907,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>4</v>
@@ -7898,10 +7921,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>4</v>
@@ -7912,10 +7935,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>4</v>
@@ -7926,10 +7949,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>4</v>
@@ -7940,10 +7963,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>4</v>
@@ -7954,10 +7977,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>4</v>
@@ -7968,10 +7991,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>4</v>
@@ -7982,10 +8005,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>4</v>
@@ -7996,10 +8019,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>4</v>
@@ -8010,10 +8033,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>4</v>
@@ -8024,10 +8047,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>4</v>
@@ -8038,10 +8061,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>4</v>
@@ -8052,10 +8075,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>4</v>
@@ -8066,10 +8089,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>4</v>
@@ -8080,10 +8103,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>4</v>
@@ -8094,10 +8117,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>4</v>
@@ -8108,10 +8131,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>4</v>
@@ -8122,10 +8145,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>4</v>
@@ -8136,10 +8159,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>4</v>
@@ -8150,10 +8173,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>4</v>
@@ -8164,10 +8187,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>4</v>
@@ -8178,10 +8201,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>4</v>
@@ -8192,10 +8215,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>4</v>
@@ -8206,10 +8229,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>4</v>
@@ -8220,10 +8243,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>4</v>
@@ -8234,10 +8257,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>4</v>
@@ -8248,10 +8271,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>4</v>
@@ -8262,10 +8285,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>4</v>
@@ -8276,10 +8299,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>4</v>
@@ -8290,10 +8313,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>4</v>
@@ -8304,10 +8327,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>4</v>
@@ -8318,10 +8341,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>4</v>
@@ -8332,10 +8355,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>4</v>
@@ -8346,10 +8369,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>4</v>
@@ -8360,10 +8383,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>4</v>
@@ -8374,10 +8397,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>4</v>
@@ -8388,10 +8411,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>4</v>
@@ -8402,10 +8425,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>4</v>
@@ -8416,10 +8439,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>4</v>
@@ -8430,10 +8453,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>4</v>
@@ -8444,10 +8467,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>4</v>
@@ -8458,10 +8481,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>4</v>
@@ -8472,10 +8495,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>4</v>
@@ -8486,10 +8509,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>4</v>
@@ -8500,10 +8523,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>4</v>
@@ -8514,10 +8537,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>4</v>
@@ -8528,10 +8551,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>4</v>
@@ -8542,10 +8565,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>4</v>
@@ -8556,10 +8579,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>4</v>
@@ -8570,10 +8593,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>4</v>
@@ -8584,10 +8607,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>4</v>
@@ -8598,10 +8621,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>4</v>
@@ -8612,10 +8635,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>4</v>
@@ -8626,10 +8649,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>4</v>
@@ -8651,10 +8674,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C472" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="C472" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>4</v>
@@ -8665,10 +8688,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>4</v>
@@ -8679,10 +8702,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>4</v>
@@ -8693,10 +8716,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>4</v>
@@ -8707,10 +8730,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>4</v>
@@ -8721,10 +8744,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>4</v>
@@ -8735,10 +8758,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>4</v>
@@ -8749,10 +8772,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>4</v>
@@ -8763,10 +8786,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>4</v>
@@ -8777,10 +8800,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>4</v>

--- a/000_DSA_500.xlsx
+++ b/000_DSA_500.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DSA_cracker 500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FBF03C-FABE-4609-8FA9-2E08986ACA31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0954E95B-8315-4458-B79D-E290CC4223D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="517">
   <si>
     <t>Topic:</t>
   </si>
@@ -1567,6 +1567,15 @@
   </si>
   <si>
     <t>do check its set approach in code</t>
+  </si>
+  <si>
+    <t>two pointers</t>
+  </si>
+  <si>
+    <t>use maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 pointers and iterate over both strings and maintain simultaneous function to know when program gets confused and you will increment both || also called normal interleaving </t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1777,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1854,6 +1863,10 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2076,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3070,11 +3083,17 @@
       <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>4</v>
+      <c r="D56" s="26">
+        <v>44262</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3087,8 +3106,14 @@
       <c r="C57" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>4</v>
+      <c r="D57" s="26">
+        <v>44262</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3098,11 +3123,17 @@
       <c r="B58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>4</v>
+      <c r="D58" s="26">
+        <v>44262</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3115,7 +3146,7 @@
       <c r="C59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3129,8 +3160,14 @@
       <c r="C60" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>4</v>
+      <c r="D60" s="26">
+        <v>44262</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3140,11 +3177,17 @@
       <c r="B61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>4</v>
+      <c r="D61" s="26">
+        <v>44262</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3154,11 +3197,17 @@
       <c r="B62" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>4</v>
+      <c r="D62" s="26">
+        <v>44262</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3168,7 +3217,7 @@
       <c r="B63" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="D63" s="4" t="s">

--- a/000_DSA_500.xlsx
+++ b/000_DSA_500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DSA_cracker 500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0954E95B-8315-4458-B79D-E290CC4223D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADEB7BD-F61E-4FCD-914F-6A63CB2A3A28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="521">
   <si>
     <t>Topic:</t>
   </si>
@@ -1576,6 +1576,18 @@
   </si>
   <si>
     <t xml:space="preserve">2 pointers and iterate over both strings and maintain simultaneous function to know when program gets confused and you will increment both || also called normal interleaving </t>
+  </si>
+  <si>
+    <t>youtube video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part of longest common subsequence </t>
+  </si>
+  <si>
+    <t>read the given arcticle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leetcode link </t>
   </si>
 </sst>
 </file>
@@ -2089,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3220,8 +3232,14 @@
       <c r="C63" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>4</v>
+      <c r="D63" s="26">
+        <v>44263</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3234,11 +3252,17 @@
       <c r="C64" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D64" s="26">
+        <v>44264</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18">
         <v>56</v>
       </c>
@@ -3248,11 +3272,17 @@
       <c r="C65" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D65" s="26">
+        <v>44264</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="18">
         <v>57</v>
       </c>
@@ -3262,11 +3292,17 @@
       <c r="C66" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D66" s="26">
+        <v>44264</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18">
         <v>58</v>
       </c>
@@ -3276,11 +3312,17 @@
       <c r="C67" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D67" s="26">
+        <v>44265</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="18">
         <v>59</v>
       </c>
@@ -3294,7 +3336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18">
         <v>60</v>
       </c>
@@ -3308,7 +3350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="18">
         <v>61</v>
       </c>
@@ -3322,7 +3364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18">
         <v>62</v>
       </c>
@@ -3336,7 +3378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="18">
         <v>63</v>
       </c>
@@ -3350,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18">
         <v>64</v>
       </c>
@@ -3364,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="18">
         <v>65</v>
       </c>
@@ -3378,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18">
         <v>66</v>
       </c>
@@ -3392,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="18">
         <v>67</v>
       </c>
@@ -3406,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18">
         <v>68</v>
       </c>
@@ -3420,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="18">
         <v>69</v>
       </c>
@@ -3434,7 +3476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18">
         <v>70</v>
       </c>
@@ -3448,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="18">
         <v>71</v>
       </c>
@@ -9835,8 +9877,10 @@
     <hyperlink ref="E48" r:id="rId454" xr:uid="{228086FD-2CAB-4B2C-A5C9-498A90756123}"/>
     <hyperlink ref="E52" r:id="rId455" display="YT video | binary seach and count " xr:uid="{AD10FD76-BA31-4FC1-B93B-FCA4DC2FF0EB}"/>
     <hyperlink ref="F53" r:id="rId456" xr:uid="{C4B33961-31F9-4AE7-9B8B-3E05FD537ECC}"/>
+    <hyperlink ref="F63" r:id="rId457" xr:uid="{D5E84F02-8C03-4B34-9811-41B4BB9381D9}"/>
+    <hyperlink ref="F67" r:id="rId458" xr:uid="{311E5E6E-F3A2-48B0-BD41-F18671887BD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId457"/>
+  <pageSetup orientation="landscape" r:id="rId459"/>
 </worksheet>
 </file>
--- a/000_DSA_500.xlsx
+++ b/000_DSA_500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DSA_cracker 500\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Immediate\DSA_cracker 500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADEB7BD-F61E-4FCD-914F-6A63CB2A3A28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916D4DC3-3DD1-4931-A2E5-2CA2F6EFA753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="531">
   <si>
     <t>Topic:</t>
   </si>
@@ -1588,6 +1588,36 @@
   </si>
   <si>
     <t xml:space="preserve">leetcode link </t>
+  </si>
+  <si>
+    <t>mark current cell as done</t>
+  </si>
+  <si>
+    <t>coding ninja 4511</t>
+  </si>
+  <si>
+    <t>added comment in code</t>
+  </si>
+  <si>
+    <t>min heap topic</t>
+  </si>
+  <si>
+    <t>use binary search to find the element, then traverse right and left using while loop for finding indexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If not sorted use linear search, else use divide and conquer like binary search on mid indices if the value is same return else check which side you'll go, left or right </t>
+  </si>
+  <si>
+    <t>just square the I in for loop… it will logN operation</t>
+  </si>
+  <si>
+    <t>in notebook IMPORTANT QUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See ques 2 in arrays… </t>
+  </si>
+  <si>
+    <t>copy and code</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1780,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1772,6 +1802,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1789,7 +1825,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1878,6 +1914,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2101,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="18">
         <v>88</v>
       </c>
@@ -3742,7 +3784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="18">
         <v>89</v>
       </c>
@@ -3756,16 +3798,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18"/>
     </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="18"/>
       <c r="B100" s="6"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="18">
         <v>90</v>
       </c>
@@ -3775,11 +3817,14 @@
       <c r="C101" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D101" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="18">
         <v>91</v>
       </c>
@@ -3789,11 +3834,14 @@
       <c r="C102" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D102" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="18">
         <v>92</v>
       </c>
@@ -3803,11 +3851,14 @@
       <c r="C103" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D103" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="18">
         <v>93</v>
       </c>
@@ -3817,25 +3868,31 @@
       <c r="C104" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D104" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="18">
         <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D105" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="18">
         <v>95</v>
       </c>
@@ -3849,7 +3906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="18">
         <v>96</v>
       </c>
@@ -3859,11 +3916,14 @@
       <c r="C107" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D107" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="18">
         <v>97</v>
       </c>
@@ -3877,7 +3937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="18">
         <v>98</v>
       </c>
@@ -3891,7 +3951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="18">
         <v>99</v>
       </c>
@@ -3905,7 +3965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="18">
         <v>100</v>
       </c>
@@ -3919,7 +3979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="18">
         <v>101</v>
       </c>
@@ -4287,7 +4347,7 @@
       <c r="C139" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4301,7 +4361,7 @@
       <c r="C140" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4315,7 +4375,7 @@
       <c r="C141" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4329,7 +4389,7 @@
       <c r="C142" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4343,7 +4403,7 @@
       <c r="C143" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4357,7 +4417,7 @@
       <c r="C144" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4368,10 +4428,10 @@
       <c r="B145" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4385,7 +4445,7 @@
       <c r="C146" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4399,7 +4459,7 @@
       <c r="C147" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4410,10 +4470,10 @@
       <c r="B148" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4427,7 +4487,7 @@
       <c r="C149" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4441,7 +4501,7 @@
       <c r="C150" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4452,10 +4512,10 @@
       <c r="B151" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4469,7 +4529,7 @@
       <c r="C152" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4483,7 +4543,7 @@
       <c r="C153" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4494,10 +4554,10 @@
       <c r="B154" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4508,10 +4568,10 @@
       <c r="B155" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4522,10 +4582,10 @@
       <c r="B156" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4539,7 +4599,7 @@
       <c r="C157" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4553,7 +4613,7 @@
       <c r="C158" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4567,7 +4627,7 @@
       <c r="C159" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4581,7 +4641,7 @@
       <c r="C160" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4595,8 +4655,8 @@
       <c r="C161" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>4</v>
+      <c r="D161" s="35" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4606,10 +4666,10 @@
       <c r="B162" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4623,7 +4683,7 @@
       <c r="C163" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4637,7 +4697,7 @@
       <c r="C164" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4651,7 +4711,7 @@
       <c r="C165" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4665,7 +4725,7 @@
       <c r="C166" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4676,10 +4736,10 @@
       <c r="B167" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6099,17 +6159,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="18"/>
       <c r="C273" s="3"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="18"/>
       <c r="C274" s="3"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="18">
         <v>254</v>
       </c>
@@ -6119,11 +6179,17 @@
       <c r="C275" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D275" s="26">
+        <v>44273</v>
+      </c>
+      <c r="E275" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="F275" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="18">
         <v>255</v>
       </c>
@@ -6133,11 +6199,17 @@
       <c r="C276" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D276" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D276" s="26">
+        <v>44273</v>
+      </c>
+      <c r="E276" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="F276" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="18">
         <v>256</v>
       </c>
@@ -6147,11 +6219,17 @@
       <c r="C277" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D277" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D277" s="26">
+        <v>44273</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="F277" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="18">
         <v>257</v>
       </c>
@@ -6165,7 +6243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="18">
         <v>258</v>
       </c>
@@ -6175,11 +6253,17 @@
       <c r="C279" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D279" s="26">
+        <v>44273</v>
+      </c>
+      <c r="E279" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="F279" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="18">
         <v>259</v>
       </c>
@@ -6193,7 +6277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="18">
         <v>260</v>
       </c>
@@ -6207,7 +6291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="18">
         <v>261</v>
       </c>
@@ -6221,7 +6305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="18">
         <v>262</v>
       </c>
@@ -6235,7 +6319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="18">
         <v>263</v>
       </c>
@@ -6249,7 +6333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="18">
         <v>264</v>
       </c>
@@ -6263,7 +6347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="18">
         <v>265</v>
       </c>
@@ -6277,7 +6361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="18">
         <v>266</v>
       </c>
@@ -6291,7 +6375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="18">
         <v>267</v>
       </c>
@@ -9553,332 +9637,332 @@
     <hyperlink ref="C144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
     <hyperlink ref="C145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
     <hyperlink ref="C146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="C153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="C157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="C159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="C161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="C163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="C166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="C167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="C168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="C169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="C171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="C172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="C177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="C178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="C179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="C181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="C183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="C185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="C186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="C187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="C188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="C190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="C191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="C192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="C193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="C195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="C196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="C201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="C203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="C205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="C211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="C225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="C226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="C228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="C239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="C241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="C243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="C249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="C251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="C253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="C257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="C259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="C261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="C265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="C267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="C269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="C270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="C271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="C272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="C275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="C277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="C278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="C279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="C280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="C281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="C282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="C283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="C284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="C285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="C286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="C287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="C288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="C289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="C290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="C291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="C292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="C293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="C296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="C297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="C298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="C299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="C300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="C301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="C302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="C303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="C304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="C305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="C306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="C307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="C308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="C309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="C310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="C311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="C312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="C313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="C314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="C315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="C316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="C317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="C318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="C319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="C320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="C321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="C322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="C323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="C324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="C325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="C326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="C327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="C328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="C329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="C330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="C331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="C332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="C333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="C336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="C337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="C338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="C339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="C340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="C341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="C342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="C343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="C344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="C345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="C346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="C347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="C348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="C349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="C350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="C351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="C352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="C353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="C356" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="C357" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="C358" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="C359" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="C360" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="C361" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="C362" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="C363" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="C364" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="C365" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="C366" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="C367" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="C368" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="C369" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="C370" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="C371" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="C372" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="C373" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="C374" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="C375" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="C376" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="C377" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="C378" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="C379" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="C380" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="C381" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="C382" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="C383" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="C384" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="C385" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="C386" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="C387" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="C388" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="C389" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="C390" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="C391" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="C392" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="C393" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="C394" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="C395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="C396" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="C397" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="C398" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="C399" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="C402" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="C403" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="C404" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="C405" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="C406" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="C407" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="C410" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="C411" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="C412" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="C413" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="C414" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="C415" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="C416" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="C417" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="C418" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="C419" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="C420" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="C421" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="C422" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="C423" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="C424" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="C425" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="C426" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="C427" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="C428" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="C429" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="C430" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="C431" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="C432" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="C433" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="C434" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="C435" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="C436" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="C437" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="C438" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="C439" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="C440" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="C441" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="C442" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="C443" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="C444" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="C445" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="C446" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="C447" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="C448" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="C449" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="C450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="C451" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="C452" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="C453" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="C454" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="C455" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="C456" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="C457" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="C458" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="C459" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="C460" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="C461" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="C462" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="C463" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="C464" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="C465" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="C466" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="C467" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="C468" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="C469" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="C472" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="C473" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="C474" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="C475" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="C476" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="C477" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="C478" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="C479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="C481" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="F17" r:id="rId446" xr:uid="{C2E4287D-6D0A-4CAD-870C-B3BEC3470BD9}"/>
-    <hyperlink ref="F35" r:id="rId447" xr:uid="{0526C445-85B2-43EE-927C-8E2A81BE67E6}"/>
-    <hyperlink ref="E35" r:id="rId448" display="set 1 article" xr:uid="{11425440-26AB-4CBC-8BE8-9F65717EC925}"/>
-    <hyperlink ref="E36" r:id="rId449" display="read this arcticle " xr:uid="{2E897128-5632-4045-8E5B-09FF43ABA268}"/>
-    <hyperlink ref="E37" r:id="rId450" xr:uid="{585BCAD9-624C-4E4C-8B2E-85CC93D5C85C}"/>
-    <hyperlink ref="E38" r:id="rId451" xr:uid="{0B7F77DD-BCAE-4285-9306-046E33CA76F0}"/>
-    <hyperlink ref="E39" r:id="rId452" xr:uid="{098DEF08-8658-40AF-9B02-65804B2DB8DE}"/>
-    <hyperlink ref="E40" r:id="rId453" xr:uid="{1654F358-DE23-4651-AD55-63A368DE090D}"/>
-    <hyperlink ref="E48" r:id="rId454" xr:uid="{228086FD-2CAB-4B2C-A5C9-498A90756123}"/>
-    <hyperlink ref="E52" r:id="rId455" display="YT video | binary seach and count " xr:uid="{AD10FD76-BA31-4FC1-B93B-FCA4DC2FF0EB}"/>
-    <hyperlink ref="F53" r:id="rId456" xr:uid="{C4B33961-31F9-4AE7-9B8B-3E05FD537ECC}"/>
-    <hyperlink ref="F63" r:id="rId457" xr:uid="{D5E84F02-8C03-4B34-9811-41B4BB9381D9}"/>
-    <hyperlink ref="F67" r:id="rId458" xr:uid="{311E5E6E-F3A2-48B0-BD41-F18671887BD2}"/>
+    <hyperlink ref="C148" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C149" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C150" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C151" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C152" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C153" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C154" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C155" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C156" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C157" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C158" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C159" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C160" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C161" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C162" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C163" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C166" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C167" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C168" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C169" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C170" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C171" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C172" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C173" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C174" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C177" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C178" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C179" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C180" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C181" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C182" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C183" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C184" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C185" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C186" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C187" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C188" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C189" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C190" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C191" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C192" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C193" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C194" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C195" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C196" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C198" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C199" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C200" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C201" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C202" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C204" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C205" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C206" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C207" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C208" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C209" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C210" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C211" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C214" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C215" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C216" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C217" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C218" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C219" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C220" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C221" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C222" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C223" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C224" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C225" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C226" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C227" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C228" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C229" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C230" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C231" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C232" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C233" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C234" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C235" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C238" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C239" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C240" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C241" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C242" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C243" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C244" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C245" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C246" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C247" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C248" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C249" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C250" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C251" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C252" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C253" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C254" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C255" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C256" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C258" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C259" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C260" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C261" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C262" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C263" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C264" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C265" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C266" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C267" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C268" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C269" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C270" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C271" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C272" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C275" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C276" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C277" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C278" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C279" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C280" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C281" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C282" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C283" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C284" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C285" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C286" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C287" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C288" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C289" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C290" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C291" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C292" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C293" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C296" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C297" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C298" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C299" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C300" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C301" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C302" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C303" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C304" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C305" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C307" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C308" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="C309" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C310" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C311" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C312" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C313" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C314" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C315" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C316" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="C317" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C318" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C319" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C320" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C321" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C322" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C323" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C324" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C325" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C326" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="C327" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C328" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C329" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C330" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C331" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C332" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C333" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C336" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C337" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C338" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="C339" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C340" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C341" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C342" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C343" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C344" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="C345" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C346" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="C347" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C348" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="C349" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C350" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="C351" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C352" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="C353" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C356" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="C357" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C358" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="C359" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C360" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="C361" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C362" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="C363" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C364" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="C365" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C366" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="C367" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C368" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="C369" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C370" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="C371" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C372" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="C373" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C374" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="C375" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C376" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C377" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C378" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="C379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C380" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="C381" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C382" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="C383" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C384" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="C385" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C386" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="C387" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C388" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C389" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C390" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C391" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C392" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="C393" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C394" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="C395" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C396" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C397" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C398" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="C399" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C402" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="C403" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C404" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C405" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C406" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C407" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C410" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="C411" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C412" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="C413" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C414" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="C415" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C416" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="C417" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C418" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="C419" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C420" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="C421" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C422" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="C423" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="C424" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="C425" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C426" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="C427" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="C428" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C429" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="C430" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="C431" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C432" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="C433" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C434" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="C435" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C436" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="C437" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C438" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="C439" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C440" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="C441" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C442" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="C443" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C444" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="C445" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C446" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="C447" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C448" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="C449" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C450" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="C451" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C452" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="C453" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="C454" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C455" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="C456" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="C457" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C458" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="C459" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C460" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="C461" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C462" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="C463" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C464" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="C465" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C466" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="C467" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="C468" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="C469" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C472" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="C473" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C474" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="C475" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C476" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="C477" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C478" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="C479" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="C481" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="F17" r:id="rId445" xr:uid="{C2E4287D-6D0A-4CAD-870C-B3BEC3470BD9}"/>
+    <hyperlink ref="F35" r:id="rId446" xr:uid="{0526C445-85B2-43EE-927C-8E2A81BE67E6}"/>
+    <hyperlink ref="E35" r:id="rId447" display="set 1 article" xr:uid="{11425440-26AB-4CBC-8BE8-9F65717EC925}"/>
+    <hyperlink ref="E36" r:id="rId448" display="read this arcticle " xr:uid="{2E897128-5632-4045-8E5B-09FF43ABA268}"/>
+    <hyperlink ref="E37" r:id="rId449" xr:uid="{585BCAD9-624C-4E4C-8B2E-85CC93D5C85C}"/>
+    <hyperlink ref="E38" r:id="rId450" xr:uid="{0B7F77DD-BCAE-4285-9306-046E33CA76F0}"/>
+    <hyperlink ref="E39" r:id="rId451" xr:uid="{098DEF08-8658-40AF-9B02-65804B2DB8DE}"/>
+    <hyperlink ref="E40" r:id="rId452" xr:uid="{1654F358-DE23-4651-AD55-63A368DE090D}"/>
+    <hyperlink ref="E48" r:id="rId453" xr:uid="{228086FD-2CAB-4B2C-A5C9-498A90756123}"/>
+    <hyperlink ref="E52" r:id="rId454" display="YT video | binary seach and count " xr:uid="{AD10FD76-BA31-4FC1-B93B-FCA4DC2FF0EB}"/>
+    <hyperlink ref="F53" r:id="rId455" xr:uid="{C4B33961-31F9-4AE7-9B8B-3E05FD537ECC}"/>
+    <hyperlink ref="F63" r:id="rId456" xr:uid="{D5E84F02-8C03-4B34-9811-41B4BB9381D9}"/>
+    <hyperlink ref="F67" r:id="rId457" xr:uid="{311E5E6E-F3A2-48B0-BD41-F18671887BD2}"/>
+    <hyperlink ref="C147" r:id="rId458" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId459"/>
